--- a/data/trans_orig/P33b_R4-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R4-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17DA278D-8D19-4910-BA56-3339CFBD2914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C36E7846-E541-470C-8852-EF8E63589133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F3BFE3C1-DC34-4E26-9F9B-961FD0AE43C6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AD212469-F546-436F-92B3-9ECA6B23377F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="143">
   <si>
     <t>Población que se siente cansado cuando despierta por la mañana en 2023 (Tasa respuesta: 99,89%)</t>
   </si>
@@ -74,388 +74,394 @@
     <t>6,56%</t>
   </si>
   <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
   </si>
   <si>
     <t>12,12%</t>
   </si>
   <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
   </si>
   <si>
     <t>9,26%</t>
   </si>
   <si>
-    <t>6,38%</t>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>74,51%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
   </si>
   <si>
     <t>12,85%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
   </si>
   <si>
     <t>87,15%</t>
   </si>
   <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
     <t>78,03%</t>
   </si>
   <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
   </si>
   <si>
     <t>81,77%</t>
   </si>
   <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -870,7 +876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22DB5B0E-0C7C-4BF8-8A5E-3FF326F05F18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910E37A7-36CE-44E5-972F-BE7B26E77E18}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1331,7 +1337,7 @@
         <v>208</v>
       </c>
       <c r="N10" s="7">
-        <v>172258</v>
+        <v>172259</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1433,7 +1439,7 @@
         <v>1390</v>
       </c>
       <c r="N12" s="7">
-        <v>1138717</v>
+        <v>1138718</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1775,7 +1781,7 @@
         <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>481</v>
@@ -1784,13 +1790,13 @@
         <v>271790</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>700</v>
@@ -1799,13 +1805,13 @@
         <v>418427</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1817,16 +1823,16 @@
         <v>809</v>
       </c>
       <c r="D20" s="7">
-        <v>551117</v>
+        <v>551118</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>1225</v>
@@ -1835,13 +1841,13 @@
         <v>753697</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>2034</v>
@@ -1850,13 +1856,13 @@
         <v>1304815</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1868,7 +1874,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1924,13 +1930,13 @@
         <v>474359</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>1248</v>
@@ -1939,13 +1945,13 @@
         <v>835803</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>1767</v>
@@ -1954,13 +1960,13 @@
         <v>1310162</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1975,13 +1981,13 @@
         <v>2907782</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>4112</v>
@@ -1990,13 +1996,13 @@
         <v>2967849</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>6966</v>
@@ -2005,13 +2011,13 @@
         <v>5875631</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2067,7 +2073,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33b_R4-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R4-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C36E7846-E541-470C-8852-EF8E63589133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5425902-DC93-456B-B6CD-BB46CAC8B431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AD212469-F546-436F-92B3-9ECA6B23377F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{724CCD0E-43B7-4870-844C-ED6E199EF8C2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -876,7 +876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910E37A7-36CE-44E5-972F-BE7B26E77E18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA39D0D-07D6-4A78-B047-0EAAD64D1391}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P33b_R4-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R4-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5425902-DC93-456B-B6CD-BB46CAC8B431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0407F7DC-0C02-4BB6-8603-D27C77632A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{724CCD0E-43B7-4870-844C-ED6E199EF8C2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D9E0BFF8-786A-49A9-9A06-00C62E245171}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="141">
   <si>
     <t>Población que se siente cansado cuando despierta por la mañana en 2023 (Tasa respuesta: 99,89%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>6,56%</t>
   </si>
   <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
   </si>
   <si>
     <t>12,12%</t>
   </si>
   <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
   </si>
   <si>
     <t>9,26%</t>
   </si>
   <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>93,44%</t>
   </si>
   <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
   </si>
   <si>
     <t>87,88%</t>
   </si>
   <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
   </si>
   <si>
     <t>90,74%</t>
   </si>
   <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>8,22%</t>
   </si>
   <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
   </si>
   <si>
     <t>13,84%</t>
   </si>
   <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
   </si>
   <si>
     <t>11,24%</t>
   </si>
   <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
   </si>
   <si>
     <t>91,78%</t>
   </si>
   <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
   </si>
   <si>
     <t>86,16%</t>
   </si>
   <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
   </si>
   <si>
     <t>88,76%</t>
   </si>
   <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -194,55 +194,55 @@
     <t>13,46%</t>
   </si>
   <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
   </si>
   <si>
     <t>16,71%</t>
   </si>
   <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
   </si>
   <si>
     <t>15,13%</t>
   </si>
   <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
   </si>
   <si>
     <t>86,54%</t>
   </si>
   <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
   </si>
   <si>
     <t>83,29%</t>
   </si>
   <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
   </si>
   <si>
     <t>84,87%</t>
   </si>
   <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -251,106 +251,106 @@
     <t>12,82%</t>
   </si>
   <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
   </si>
   <si>
     <t>23,41%</t>
   </si>
   <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
   </si>
   <si>
     <t>18,2%</t>
   </si>
   <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
   </si>
   <si>
     <t>87,18%</t>
   </si>
   <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
   </si>
   <si>
     <t>76,59%</t>
   </si>
   <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
   </si>
   <si>
     <t>81,8%</t>
   </si>
   <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
   </si>
   <si>
     <t>55/64</t>
   </si>
   <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
   </si>
   <si>
     <t>30,23%</t>
   </si>
   <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
   </si>
   <si>
     <t>23,45%</t>
   </si>
   <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>80,07%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
   </si>
   <si>
     <t>69,77%</t>
   </si>
   <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
   </si>
   <si>
     <t>76,55%</t>
   </si>
   <si>
-    <t>74,51%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -359,109 +359,103 @@
     <t>21,02%</t>
   </si>
   <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
+    <t>18,47%</t>
   </si>
   <si>
     <t>26,5%</t>
   </si>
   <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
   </si>
   <si>
     <t>24,28%</t>
   </si>
   <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
   </si>
   <si>
     <t>78,98%</t>
   </si>
   <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
+    <t>81,53%</t>
   </si>
   <si>
     <t>73,5%</t>
   </si>
   <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
   </si>
   <si>
     <t>75,72%</t>
   </si>
   <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
   </si>
   <si>
     <t>14,03%</t>
   </si>
   <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
   </si>
   <si>
     <t>21,97%</t>
   </si>
   <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
   </si>
   <si>
     <t>18,23%</t>
   </si>
   <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
   </si>
   <si>
     <t>85,97%</t>
   </si>
   <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
   </si>
   <si>
     <t>78,03%</t>
   </si>
   <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>80,05%</t>
   </si>
   <si>
     <t>81,77%</t>
   </si>
   <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -876,7 +870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA39D0D-07D6-4A78-B047-0EAAD64D1391}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C8827EB-0A41-4C44-B681-D172EE5DDF5F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1337,7 +1331,7 @@
         <v>208</v>
       </c>
       <c r="N10" s="7">
-        <v>172259</v>
+        <v>172258</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1439,7 +1433,7 @@
         <v>1390</v>
       </c>
       <c r="N12" s="7">
-        <v>1138718</v>
+        <v>1138717</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1781,7 +1775,7 @@
         <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="H19" s="7">
         <v>481</v>
@@ -1790,13 +1784,13 @@
         <v>271790</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>700</v>
@@ -1805,13 +1799,13 @@
         <v>418427</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1823,16 +1817,16 @@
         <v>809</v>
       </c>
       <c r="D20" s="7">
-        <v>551118</v>
+        <v>551117</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>1225</v>
@@ -1841,13 +1835,13 @@
         <v>753697</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>2034</v>
@@ -1856,13 +1850,13 @@
         <v>1304815</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1874,7 +1868,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1930,13 +1924,13 @@
         <v>474359</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>1248</v>
@@ -1945,13 +1939,13 @@
         <v>835803</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>1767</v>
@@ -1960,13 +1954,13 @@
         <v>1310162</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,13 +1975,13 @@
         <v>2907782</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>4112</v>
@@ -1996,13 +1990,13 @@
         <v>2967849</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>6966</v>
@@ -2011,13 +2005,13 @@
         <v>5875631</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2073,7 +2067,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33b_R4-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R4-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0407F7DC-0C02-4BB6-8603-D27C77632A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1B87CF30-4DDB-4ABC-9A44-4474EF29A0DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D9E0BFF8-786A-49A9-9A06-00C62E245171}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{355F1495-E177-43FC-93DF-873634B93D0E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="164">
   <si>
     <t>Población que se siente cansado cuando despierta por la mañana en 2023 (Tasa respuesta: 99,89%)</t>
   </si>
@@ -65,397 +65,466 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
   </si>
   <si>
     <t>7,73%</t>
   </si>
   <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
   </si>
   <si>
     <t>92,27%</t>
   </si>
   <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
   </si>
   <si>
     <t>20,58%</t>
   </si>
   <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
   </si>
   <si>
     <t>79,42%</t>
   </si>
   <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>80,05%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -870,8 +939,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C8827EB-0A41-4C44-B681-D172EE5DDF5F}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54AA5E94-66F4-4A2A-9046-9EDC7D0D73F9}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -991,7 +1060,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="7">
-        <v>24792</v>
+        <v>25953</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1006,7 +1075,7 @@
         <v>24</v>
       </c>
       <c r="I4" s="7">
-        <v>43037</v>
+        <v>38510</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1021,7 +1090,7 @@
         <v>36</v>
       </c>
       <c r="N4" s="7">
-        <v>67829</v>
+        <v>64463</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1042,7 +1111,7 @@
         <v>160</v>
       </c>
       <c r="D5" s="7">
-        <v>352887</v>
+        <v>374034</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1057,7 +1126,7 @@
         <v>183</v>
       </c>
       <c r="I5" s="7">
-        <v>311920</v>
+        <v>274690</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1072,7 +1141,7 @@
         <v>343</v>
       </c>
       <c r="N5" s="7">
-        <v>664807</v>
+        <v>648724</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1093,7 +1162,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1108,7 +1177,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1123,7 +1192,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1146,7 +1215,7 @@
         <v>26</v>
       </c>
       <c r="D7" s="7">
-        <v>35211</v>
+        <v>34752</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1161,7 +1230,7 @@
         <v>58</v>
       </c>
       <c r="I7" s="7">
-        <v>68992</v>
+        <v>63229</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1176,7 +1245,7 @@
         <v>84</v>
       </c>
       <c r="N7" s="7">
-        <v>104203</v>
+        <v>97981</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1197,7 +1266,7 @@
         <v>276</v>
       </c>
       <c r="D8" s="7">
-        <v>393185</v>
+        <v>388795</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1212,7 +1281,7 @@
         <v>402</v>
       </c>
       <c r="I8" s="7">
-        <v>429585</v>
+        <v>448275</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1227,7 +1296,7 @@
         <v>678</v>
       </c>
       <c r="N8" s="7">
-        <v>822770</v>
+        <v>837070</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1248,7 +1317,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1263,7 +1332,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1278,7 +1347,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1301,7 +1370,7 @@
         <v>66</v>
       </c>
       <c r="D10" s="7">
-        <v>74760</v>
+        <v>71144</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1316,7 +1385,7 @@
         <v>142</v>
       </c>
       <c r="I10" s="7">
-        <v>97499</v>
+        <v>90391</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1331,7 +1400,7 @@
         <v>208</v>
       </c>
       <c r="N10" s="7">
-        <v>172258</v>
+        <v>161536</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1352,7 +1421,7 @@
         <v>478</v>
       </c>
       <c r="D11" s="7">
-        <v>480482</v>
+        <v>463209</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1367,7 +1436,7 @@
         <v>704</v>
       </c>
       <c r="I11" s="7">
-        <v>485977</v>
+        <v>452077</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1382,7 +1451,7 @@
         <v>1182</v>
       </c>
       <c r="N11" s="7">
-        <v>966459</v>
+        <v>915285</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1403,7 +1472,7 @@
         <v>544</v>
       </c>
       <c r="D12" s="7">
-        <v>555242</v>
+        <v>534353</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1418,7 +1487,7 @@
         <v>846</v>
       </c>
       <c r="I12" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1433,7 +1502,7 @@
         <v>1390</v>
       </c>
       <c r="N12" s="7">
-        <v>1138717</v>
+        <v>1076821</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1456,7 +1525,7 @@
         <v>87</v>
       </c>
       <c r="D13" s="7">
-        <v>92835</v>
+        <v>87488</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1471,7 +1540,7 @@
         <v>253</v>
       </c>
       <c r="I13" s="7">
-        <v>174820</v>
+        <v>158837</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1486,7 +1555,7 @@
         <v>340</v>
       </c>
       <c r="N13" s="7">
-        <v>267656</v>
+        <v>246325</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1507,7 +1576,7 @@
         <v>578</v>
       </c>
       <c r="D14" s="7">
-        <v>631155</v>
+        <v>800298</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1522,7 +1591,7 @@
         <v>887</v>
       </c>
       <c r="I14" s="7">
-        <v>572034</v>
+        <v>553661</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1537,7 +1606,7 @@
         <v>1465</v>
       </c>
       <c r="N14" s="7">
-        <v>1203188</v>
+        <v>1353960</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1558,7 +1627,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1573,7 +1642,7 @@
         <v>1140</v>
       </c>
       <c r="I15" s="7">
-        <v>746854</v>
+        <v>712498</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1588,7 +1657,7 @@
         <v>1805</v>
       </c>
       <c r="N15" s="7">
-        <v>1470844</v>
+        <v>1600285</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1611,46 +1680,46 @@
         <v>109</v>
       </c>
       <c r="D16" s="7">
-        <v>100124</v>
+        <v>91621</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>290</v>
       </c>
       <c r="I16" s="7">
-        <v>179665</v>
+        <v>162587</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>399</v>
       </c>
       <c r="N16" s="7">
-        <v>279789</v>
+        <v>254208</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1662,46 +1731,46 @@
         <v>553</v>
       </c>
       <c r="D17" s="7">
-        <v>498956</v>
+        <v>468583</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>711</v>
       </c>
       <c r="I17" s="7">
-        <v>414636</v>
+        <v>382979</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1264</v>
       </c>
       <c r="N17" s="7">
-        <v>913592</v>
+        <v>851562</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1713,7 +1782,7 @@
         <v>662</v>
       </c>
       <c r="D18" s="7">
-        <v>599080</v>
+        <v>560204</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1728,7 +1797,7 @@
         <v>1001</v>
       </c>
       <c r="I18" s="7">
-        <v>594301</v>
+        <v>545566</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1743,7 +1812,7 @@
         <v>1663</v>
       </c>
       <c r="N18" s="7">
-        <v>1193381</v>
+        <v>1105770</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1757,55 +1826,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>219</v>
+        <v>96</v>
       </c>
       <c r="D19" s="7">
-        <v>146637</v>
+        <v>58679</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>481</v>
+        <v>208</v>
       </c>
       <c r="I19" s="7">
-        <v>271790</v>
+        <v>104186</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>700</v>
+        <v>304</v>
       </c>
       <c r="N19" s="7">
-        <v>418427</v>
+        <v>162864</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1814,49 +1883,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>809</v>
+        <v>474</v>
       </c>
       <c r="D20" s="7">
-        <v>551117</v>
+        <v>309486</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>1225</v>
+        <v>619</v>
       </c>
       <c r="I20" s="7">
-        <v>753697</v>
+        <v>504182</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>2034</v>
+        <v>1093</v>
       </c>
       <c r="N20" s="7">
-        <v>1304815</v>
+        <v>813669</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1865,10 +1934,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1880,10 +1949,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1706</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1025487</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -1895,10 +1964,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2734</v>
+        <v>1397</v>
       </c>
       <c r="N21" s="7">
-        <v>1723242</v>
+        <v>976533</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -1912,55 +1981,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>519</v>
+        <v>123</v>
       </c>
       <c r="D22" s="7">
-        <v>474359</v>
+        <v>73170</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>1248</v>
+        <v>273</v>
       </c>
       <c r="I22" s="7">
-        <v>835803</v>
+        <v>135215</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>1767</v>
+        <v>396</v>
       </c>
       <c r="N22" s="7">
-        <v>1310162</v>
+        <v>208385</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1969,49 +2038,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2854</v>
+        <v>335</v>
       </c>
       <c r="D23" s="7">
-        <v>2907782</v>
+        <v>209589</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>4112</v>
+        <v>606</v>
       </c>
       <c r="I23" s="7">
-        <v>2967849</v>
+        <v>289563</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>6966</v>
+        <v>941</v>
       </c>
       <c r="N23" s="7">
-        <v>5875631</v>
+        <v>499152</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2020,63 +2089,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>879</v>
+      </c>
+      <c r="I24" s="7">
+        <v>424778</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1337</v>
+      </c>
+      <c r="N24" s="7">
+        <v>707537</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>519</v>
+      </c>
+      <c r="D25" s="7">
+        <v>442807</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1248</v>
+      </c>
+      <c r="I25" s="7">
+        <v>752955</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1767</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1195762</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2854</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3013995</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4112</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2905426</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6966</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5919422</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3373</v>
       </c>
-      <c r="D24" s="7">
-        <v>3382141</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3456802</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5360</v>
       </c>
-      <c r="I24" s="7">
-        <v>3803652</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3658381</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8733</v>
       </c>
-      <c r="N24" s="7">
-        <v>7185793</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="N27" s="7">
+        <v>7115184</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
